--- a/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
   <si>
     <t>b-activo-corriente</t>
   </si>
@@ -232,15 +232,12 @@
     <t>iaest-measure:v-acreedores-comerciales-y-otras-cuentas-a-pagar</t>
   </si>
   <si>
-    <t>iaest-dimension:balance</t>
+    <t>iaest-measure:balance</t>
   </si>
   <si>
     <t>iaest-measure:i-capital</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -331,7 +328,7 @@
     <t>iaest-measure:ii-provisiones-a-corto-plazo</t>
   </si>
   <si>
-    <t>iaest-dimension:ratios</t>
+    <t>iaest-measure:ratios</t>
   </si>
   <si>
     <t>iaest-measure:a-1-fondos-propios</t>
@@ -385,7 +382,7 @@
     <t>iaest-measure:ratio-de-autonomia-financiera</t>
   </si>
   <si>
-    <t>iaest-dimension:pyg</t>
+    <t>iaest-measure:pyg</t>
   </si>
   <si>
     <t>medida</t>
@@ -397,25 +394,19 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-balance.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ratios.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pyg.xlsx</t>
   </si>
 </sst>
 </file>
@@ -710,559 +701,550 @@
         <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>125</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AW3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AW4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
-      <c r="K5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
@@ -11,399 +11,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
-  <si>
-    <t>b-activo-corriente</t>
-  </si>
-  <si>
-    <t>rentabilidad-financiera</t>
-  </si>
-  <si>
-    <t>ratio-de-tesoreria</t>
-  </si>
-  <si>
-    <t>6-gastos-de-personal</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>14-ingresos-financieros</t>
-  </si>
-  <si>
-    <t>rentabilidad-economica</t>
-  </si>
-  <si>
-    <t>deudas-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>v-acreedores-comerciales-y-otras-cuentas-a-pagar</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>i-capital</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>vii-efectivo-y-otros-activos-liquidos-equivalentes</t>
-  </si>
-  <si>
-    <t>c-pasivo-corriente</t>
-  </si>
-  <si>
-    <t>b-pasivo-no-corriente</t>
-  </si>
-  <si>
-    <t>ii-inmovilizado-material</t>
-  </si>
-  <si>
-    <t>4-aprovisionamientos</t>
-  </si>
-  <si>
-    <t>a-resultado-de-explotacion</t>
-  </si>
-  <si>
-    <t>fondo-de-maniobra</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>3-trabajos-realizados-por-la-empresa-para-su-activo</t>
-  </si>
-  <si>
-    <t>i-provisiones-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>c-resultado-antes-de-impuestos</t>
-  </si>
-  <si>
-    <t>19-impuestos-sobre-beneficios</t>
-  </si>
-  <si>
-    <t>numero-de-empresas</t>
-  </si>
-  <si>
-    <t>i-inmovilizado-intangible</t>
-  </si>
-  <si>
-    <t>ivvvii-otros-pasivos-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>1-importe-neto-de-la-cifra-de-negocios</t>
-  </si>
-  <si>
-    <t>a-activo-no-corriente</t>
-  </si>
-  <si>
-    <t>i-activos-no-corrientes-mantenidos-para-la-venta</t>
-  </si>
-  <si>
-    <t>i-pasivos-vinculados-con-activos-no-corrientes</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>15-gastos-financieros</t>
-  </si>
-  <si>
-    <t>iii-inversiones-inmobiliarias</t>
-  </si>
-  <si>
-    <t>total-patrimonio-neto-y-pasivo</t>
-  </si>
-  <si>
-    <t>vi-vii-otros-pasivos-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>d-resultado-del-ejercicio</t>
-  </si>
-  <si>
-    <t>7-otros-gastos-de-explotacion</t>
-  </si>
-  <si>
-    <t>a-patrimonio-neto</t>
-  </si>
-  <si>
-    <t>2-variacion-de-existencias-de-productos-terminados-y-en-curso-de-fabricacion</t>
-  </si>
-  <si>
-    <t>ratio-de-calidad-de-la-deuda</t>
-  </si>
-  <si>
-    <t>iii-deudores-comerciales-y-otras-cuentas-a-cobrar</t>
-  </si>
-  <si>
-    <t>ii-provisiones-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>ratios</t>
-  </si>
-  <si>
-    <t>a-1-fondos-propios</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>iv-vi-otros-activos-corrientes</t>
-  </si>
-  <si>
-    <t>ii-ixa-2a-3-otros-fondos</t>
-  </si>
-  <si>
-    <t>total-activo-ab</t>
-  </si>
-  <si>
-    <t>9-13-otros-resultados-de-explotacion</t>
-  </si>
-  <si>
-    <t>ratio-de-liquidez</t>
-  </si>
-  <si>
-    <t>5-otros-ingresos-de-explotacion</t>
-  </si>
-  <si>
-    <t>8-amortizacion-del-inmovilizado</t>
-  </si>
-  <si>
-    <t>otros-activos-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>b-resultado-financiero</t>
-  </si>
-  <si>
-    <t>ii-iii-deudas-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>ii-existencias</t>
-  </si>
-  <si>
-    <t>vi-acreedores-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>iii-iv-deudas-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>16-18-otros-resultados-financieros</t>
-  </si>
-  <si>
-    <t>ratio-de-autonomia-financiera</t>
-  </si>
-  <si>
-    <t>pyg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
+  <si>
+    <t>I Inmovilizado intangible</t>
+  </si>
+  <si>
+    <t>TOTAL ACTIVO (A+B)</t>
+  </si>
+  <si>
+    <t>B) ACTIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>8 Amortización del inmovilizado</t>
+  </si>
+  <si>
+    <t>9-13 Otros resultados de explotación</t>
+  </si>
+  <si>
+    <t>V Acreedores comerciales y otras cuentas a pagar</t>
+  </si>
+  <si>
+    <t>I Provisiones a largo plazo</t>
+  </si>
+  <si>
+    <t>A-1) Fondos propios</t>
+  </si>
+  <si>
+    <t>Ratio de tesorería</t>
+  </si>
+  <si>
+    <t>Ratio de calidad de la deuda</t>
+  </si>
+  <si>
+    <t>C) PASIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>II-III Deudas a largo plazo</t>
+  </si>
+  <si>
+    <t>Otros activos comerciales no corrientes</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>19 Impuestos sobre beneficios</t>
+  </si>
+  <si>
+    <t>III Inversiones inmobiliarias</t>
+  </si>
+  <si>
+    <t>1 Importe neto de la cifra de negocios</t>
+  </si>
+  <si>
+    <t>III-IV Deudas a corto plazo</t>
+  </si>
+  <si>
+    <t>Rentabilidad financiera</t>
+  </si>
+  <si>
+    <t>4 Aprovisionamientos</t>
+  </si>
+  <si>
+    <t>Ratio de liquidez</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Ratio de autonomía financiera</t>
+  </si>
+  <si>
+    <t>IV,V,VII Otros pasivos a largo plazo</t>
+  </si>
+  <si>
+    <t>B) PASIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>D) RESULTADO DEL EJERCICIO</t>
+  </si>
+  <si>
+    <t>IV-VI Otros activos corrientes</t>
+  </si>
+  <si>
+    <t>I Capital</t>
+  </si>
+  <si>
+    <t>6 Gastos de personal</t>
+  </si>
+  <si>
+    <t>B) RESULTADO FINANCIERO</t>
+  </si>
+  <si>
+    <t>Rentabilidad económica</t>
+  </si>
+  <si>
+    <t>5 Otros ingresos de explotación</t>
+  </si>
+  <si>
+    <t>A) ACTIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL PATRIMONIO NETO Y PASIVO</t>
+  </si>
+  <si>
+    <t>7 Otros gastos de explotación</t>
+  </si>
+  <si>
+    <t>VI-VII Otros pasivos a corto plazo</t>
+  </si>
+  <si>
+    <t>16-18 Otros resultados financieros</t>
+  </si>
+  <si>
+    <t>I Activos no corrientes mantenidos para la venta</t>
+  </si>
+  <si>
+    <t>C) RESULTADO ANTES DE IMPUESTOS</t>
+  </si>
+  <si>
+    <t>VII Efectivo y otros activos líquidos equivalentes</t>
+  </si>
+  <si>
+    <t>II Provisiones a corto plazo</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>II Existencias</t>
+  </si>
+  <si>
+    <t>A) Patrimonio neto</t>
+  </si>
+  <si>
+    <t>2 Variación de existencias de productos terminados y en curso de fabricación</t>
+  </si>
+  <si>
+    <t>VI Acreedores comerciales no corrientes</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>RATIOS</t>
+  </si>
+  <si>
+    <t>II Inmovilizado material</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>15 Gastos financieros</t>
+  </si>
+  <si>
+    <t>Deudas comerciales no corrientes</t>
+  </si>
+  <si>
+    <t>Fondo de maniobra</t>
+  </si>
+  <si>
+    <t>Número de empresas</t>
+  </si>
+  <si>
+    <t>II-IX,A-2,A-3 Otros fondos</t>
+  </si>
+  <si>
+    <t>14 Ingresos financieros</t>
+  </si>
+  <si>
+    <t>3 Trabajos realizados por la empresa para su activo</t>
+  </si>
+  <si>
+    <t>I Pasivos vinculados con activos no corrientes</t>
+  </si>
+  <si>
+    <t>A) RESULTADO DE EXPLOTACIÓN</t>
+  </si>
+  <si>
+    <t>III Deudores comerciales y otras cuentas a cobrar</t>
+  </si>
+  <si>
+    <t>iaest-measure:i-inmovilizado-intangible</t>
+  </si>
+  <si>
+    <t>iaest-measure:total-activo-ab</t>
   </si>
   <si>
     <t>iaest-measure:b-activo-corriente</t>
   </si>
   <si>
+    <t>iaest-measure:8-amortizacion-del-inmovilizado</t>
+  </si>
+  <si>
+    <t>iaest-measure:9-13-otros-resultados-de-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:v-acreedores-comerciales-y-otras-cuentas-a-pagar</t>
+  </si>
+  <si>
+    <t>iaest-measure:i-provisiones-a-largo-plazo</t>
+  </si>
+  <si>
+    <t>iaest-measure:a-1-fondos-propios</t>
+  </si>
+  <si>
+    <t>iaest-measure:ratio-de-tesoreria</t>
+  </si>
+  <si>
+    <t>iaest-measure:ratio-de-calidad-de-la-deuda</t>
+  </si>
+  <si>
+    <t>iaest-measure:c-pasivo-corriente</t>
+  </si>
+  <si>
+    <t>iaest-measure:ii-iii-deudas-a-largo-plazo</t>
+  </si>
+  <si>
+    <t>iaest-measure:otros-activos-comerciales-no-corrientes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t>iaest-measure:19-impuestos-sobre-beneficios</t>
+  </si>
+  <si>
+    <t>iaest-measure:iii-inversiones-inmobiliarias</t>
+  </si>
+  <si>
+    <t>iaest-measure:1-importe-neto-de-la-cifra-de-negocios</t>
+  </si>
+  <si>
+    <t>iaest-measure:iii-iv-deudas-a-corto-plazo</t>
+  </si>
+  <si>
     <t>iaest-measure:rentabilidad-financiera</t>
   </si>
   <si>
-    <t>iaest-measure:ratio-de-tesoreria</t>
+    <t>iaest-measure:4-aprovisionamientos</t>
+  </si>
+  <si>
+    <t>iaest-measure:ratio-de-liquidez</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:balance</t>
+  </si>
+  <si>
+    <t>iaest-measure:ratio-de-autonomia-financiera</t>
+  </si>
+  <si>
+    <t>iaest-measure:ivvvii-otros-pasivos-a-largo-plazo</t>
+  </si>
+  <si>
+    <t>iaest-measure:b-pasivo-no-corriente</t>
+  </si>
+  <si>
+    <t>iaest-measure:d-resultado-del-ejercicio</t>
+  </si>
+  <si>
+    <t>iaest-measure:iv-vi-otros-activos-corrientes</t>
+  </si>
+  <si>
+    <t>iaest-measure:i-capital</t>
   </si>
   <si>
     <t>iaest-measure:6-gastos-de-personal</t>
   </si>
   <si>
-    <t>null</t>
+    <t>iaest-measure:b-resultado-financiero</t>
+  </si>
+  <si>
+    <t>iaest-measure:rentabilidad-economica</t>
+  </si>
+  <si>
+    <t>iaest-measure:5-otros-ingresos-de-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:a-activo-no-corriente</t>
+  </si>
+  <si>
+    <t>iaest-measure:total-patrimonio-neto-y-pasivo</t>
+  </si>
+  <si>
+    <t>iaest-measure:7-otros-gastos-de-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:vi-vii-otros-pasivos-a-corto-plazo</t>
+  </si>
+  <si>
+    <t>iaest-measure:16-18-otros-resultados-financieros</t>
+  </si>
+  <si>
+    <t>iaest-measure:i-activos-no-corrientes-mantenidos-para-la-venta</t>
+  </si>
+  <si>
+    <t>iaest-measure:c-resultado-antes-de-impuestos</t>
+  </si>
+  <si>
+    <t>iaest-measure:vii-efectivo-y-otros-activos-liquidos-equivalentes</t>
+  </si>
+  <si>
+    <t>iaest-measure:ii-provisiones-a-corto-plazo</t>
+  </si>
+  <si>
+    <t>iaest-measure:ii-existencias</t>
+  </si>
+  <si>
+    <t>iaest-measure:a-patrimonio-neto</t>
+  </si>
+  <si>
+    <t>iaest-measure:2-variacion-de-existencias-de-productos-terminados-y-en-curso-de-fabricacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:vi-acreedores-comerciales-no-corrientes</t>
+  </si>
+  <si>
+    <t>iaest-measure:pyg</t>
+  </si>
+  <si>
+    <t>iaest-measure:ratios</t>
+  </si>
+  <si>
+    <t>iaest-measure:ii-inmovilizado-material</t>
+  </si>
+  <si>
+    <t>iaest-measure:15-gastos-financieros</t>
+  </si>
+  <si>
+    <t>iaest-measure:deudas-comerciales-no-corrientes</t>
+  </si>
+  <si>
+    <t>iaest-measure:fondo-de-maniobra</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-de-empresas</t>
+  </si>
+  <si>
+    <t>iaest-measure:ii-ixa-2a-3-otros-fondos</t>
   </si>
   <si>
     <t>iaest-measure:14-ingresos-financieros</t>
   </si>
   <si>
-    <t>iaest-measure:rentabilidad-economica</t>
-  </si>
-  <si>
-    <t>iaest-measure:deudas-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>iaest-measure:v-acreedores-comerciales-y-otras-cuentas-a-pagar</t>
-  </si>
-  <si>
-    <t>iaest-measure:balance</t>
-  </si>
-  <si>
-    <t>iaest-measure:i-capital</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:vii-efectivo-y-otros-activos-liquidos-equivalentes</t>
-  </si>
-  <si>
-    <t>iaest-measure:c-pasivo-corriente</t>
-  </si>
-  <si>
-    <t>iaest-measure:b-pasivo-no-corriente</t>
-  </si>
-  <si>
-    <t>iaest-measure:ii-inmovilizado-material</t>
-  </si>
-  <si>
-    <t>iaest-measure:4-aprovisionamientos</t>
+    <t>iaest-measure:3-trabajos-realizados-por-la-empresa-para-su-activo</t>
+  </si>
+  <si>
+    <t>iaest-measure:i-pasivos-vinculados-con-activos-no-corrientes</t>
   </si>
   <si>
     <t>iaest-measure:a-resultado-de-explotacion</t>
   </si>
   <si>
-    <t>iaest-measure:fondo-de-maniobra</t>
-  </si>
-  <si>
-    <t>iaest-measure:3-trabajos-realizados-por-la-empresa-para-su-activo</t>
-  </si>
-  <si>
-    <t>iaest-measure:i-provisiones-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:c-resultado-antes-de-impuestos</t>
-  </si>
-  <si>
-    <t>iaest-measure:19-impuestos-sobre-beneficios</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-de-empresas</t>
-  </si>
-  <si>
-    <t>iaest-measure:i-inmovilizado-intangible</t>
-  </si>
-  <si>
-    <t>iaest-measure:ivvvii-otros-pasivos-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:1-importe-neto-de-la-cifra-de-negocios</t>
-  </si>
-  <si>
-    <t>iaest-measure:a-activo-no-corriente</t>
-  </si>
-  <si>
-    <t>iaest-measure:i-activos-no-corrientes-mantenidos-para-la-venta</t>
-  </si>
-  <si>
-    <t>iaest-measure:i-pasivos-vinculados-con-activos-no-corrientes</t>
-  </si>
-  <si>
-    <t>iaest-measure:15-gastos-financieros</t>
-  </si>
-  <si>
-    <t>iaest-measure:iii-inversiones-inmobiliarias</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-patrimonio-neto-y-pasivo</t>
-  </si>
-  <si>
-    <t>iaest-measure:vi-vii-otros-pasivos-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:d-resultado-del-ejercicio</t>
-  </si>
-  <si>
-    <t>iaest-measure:7-otros-gastos-de-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:a-patrimonio-neto</t>
-  </si>
-  <si>
-    <t>iaest-measure:2-variacion-de-existencias-de-productos-terminados-y-en-curso-de-fabricacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:ratio-de-calidad-de-la-deuda</t>
-  </si>
-  <si>
     <t>iaest-measure:iii-deudores-comerciales-y-otras-cuentas-a-cobrar</t>
   </si>
   <si>
-    <t>iaest-measure:ii-provisiones-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:ratios</t>
-  </si>
-  <si>
-    <t>iaest-measure:a-1-fondos-propios</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:iv-vi-otros-activos-corrientes</t>
-  </si>
-  <si>
-    <t>iaest-measure:ii-ixa-2a-3-otros-fondos</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-activo-ab</t>
-  </si>
-  <si>
-    <t>iaest-measure:9-13-otros-resultados-de-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:ratio-de-liquidez</t>
-  </si>
-  <si>
-    <t>iaest-measure:5-otros-ingresos-de-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:8-amortizacion-del-inmovilizado</t>
-  </si>
-  <si>
-    <t>iaest-measure:otros-activos-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>iaest-measure:b-resultado-financiero</t>
-  </si>
-  <si>
-    <t>iaest-measure:ii-iii-deudas-a-largo-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:ii-existencias</t>
-  </si>
-  <si>
-    <t>iaest-measure:vi-acreedores-comerciales-no-corrientes</t>
-  </si>
-  <si>
-    <t>iaest-measure:iii-iv-deudas-a-corto-plazo</t>
-  </si>
-  <si>
-    <t>iaest-measure:16-18-otros-resultados-financieros</t>
-  </si>
-  <si>
-    <t>iaest-measure:ratio-de-autonomia-financiera</t>
-  </si>
-  <si>
-    <t>iaest-measure:pyg</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -686,142 +692,142 @@
         <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>114</v>
@@ -868,7 +874,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>124</v>
@@ -880,7 +886,7 @@
         <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>124</v>
@@ -892,46 +898,46 @@
         <v>124</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="Y3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>124</v>
@@ -955,49 +961,49 @@
         <v>124</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="AU3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>124</v>
@@ -1015,7 +1021,7 @@
         <v>124</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>124</v>
@@ -1062,7 +1068,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>126</v>
@@ -1074,7 +1080,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>126</v>
@@ -1086,46 +1092,46 @@
         <v>126</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>126</v>
@@ -1149,67 +1155,67 @@
         <v>126</v>
       </c>
       <c r="AH4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AZ4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>126</v>
@@ -1221,7 +1227,7 @@
         <v>126</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>126</v>
@@ -1243,8 +1249,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="AV5" s="1" t="s">
-        <v>131</v>
+      <c r="P5" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-110304-11030401-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="199">
   <si>
     <t>I Inmovilizado intangible</t>
   </si>
@@ -205,12 +205,6 @@
     <t>III Deudores comerciales y otras cuentas a cobrar</t>
   </si>
   <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>CCAA código</t>
-  </si>
-  <si>
     <t>i-inmovilizado-intangible</t>
   </si>
   <si>
@@ -403,12 +397,6 @@
     <t>iii-deudores-comerciales-y-otras-cuentas-a-cobrar</t>
   </si>
   <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
     <t>iaest-measure:i-inmovilizado-intangible</t>
   </si>
   <si>
@@ -617,9 +605,6 @@
   </si>
   <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>mapping-ratios.xlsx</t>
@@ -629,16 +614,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,20 +631,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,15 +656,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,816 +860,786 @@
       <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="BG5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="AZ6" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
